--- a/data/freecrm.xlsx
+++ b/data/freecrm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BoyBangla\SeleniumFinalProject1\May2023Team6-Web-Automation-Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8C7ED-63DC-49EF-82E3-95339BCA5506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94522C68-621B-4FBD-8F8C-09EE3CA254DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15390" windowHeight="9443" xr2:uid="{78EF7E76-DF09-4B20-8BDA-8B5DE7DFF248}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15390" windowHeight="9443" firstSheet="2" activeTab="2" xr2:uid="{78EF7E76-DF09-4B20-8BDA-8B5DE7DFF248}"/>
   </bookViews>
   <sheets>
     <sheet name="VerifyDashboard" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="DocumentItem" sheetId="3" r:id="rId3"/>
     <sheet name="DealsItem" sheetId="4" r:id="rId4"/>
     <sheet name="ContactsItem" sheetId="5" r:id="rId5"/>
+    <sheet name="CalendarItem" sheetId="6" r:id="rId6"/>
+    <sheet name="CampaignItem" sheetId="7" r:id="rId7"/>
+    <sheet name="CaseItem" sheetId="8" r:id="rId8"/>
+    <sheet name="CompanyItem" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>newtask</t>
   </si>
@@ -71,6 +75,24 @@
   </si>
   <si>
     <t>Messi</t>
+  </si>
+  <si>
+    <t>Test event</t>
+  </si>
+  <si>
+    <t>USA2027</t>
+  </si>
+  <si>
+    <t>Second Case</t>
+  </si>
+  <si>
+    <t>this is a case note</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>HarryKaneDeal</t>
   </si>
 </sst>
 </file>
@@ -439,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D70606-C4BA-4ECA-A9D0-33F0AF493BC0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -493,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319ED87B-42BD-44FA-A42D-D1210E8BEED1}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -570,4 +592,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D1EED1-C93F-4FA6-AEF2-4D6102DD8EA5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E069B7E9-3C95-40E8-92E2-BB06C831DADB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CF10DB-401A-4CCD-91F8-25F19C4CAAFF}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4703DF-A455-416C-AA69-D16A364BE8F8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>